--- a/medicine/Enfance/Laura_Vaccaro_Seeger/Laura_Vaccaro_Seeger.xlsx
+++ b/medicine/Enfance/Laura_Vaccaro_Seeger/Laura_Vaccaro_Seeger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laura Vaccaro Seeger (née Laura Vaccaro dans les années 1960 aux États-Unis) est une artiste, animatrice, designer, auteure, écrivaine et illustratrice américaine, notamment en littérature jeunesse[1],[2],[3],[4],[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laura Vaccaro Seeger (née Laura Vaccaro dans les années 1960 aux États-Unis) est une artiste, animatrice, designer, auteure, écrivaine et illustratrice américaine, notamment en littérature jeunesse.
 </t>
         </is>
       </c>
@@ -513,14 +525,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Scolarité et carrière
-Seeger a obtenu son diplôme BFA à la School of Fine Art and Design de la université d'État de New York à Purchase, Westchester, New York. Elle a commencé une carrière d'animatrice, d'artiste, de designer et de monteuse dans le secteur de la télévision en réseau. Elle a créé des ouvertures de spectacles et des segments spéciaux pour NBC et ABC pendant de nombreuses années et a remporté un Emmy Award pour une animation d'ouverture spéciale NBC.
-Reconnaissance
-Elle est souvent apparue sur la liste des meilleures ventes du New York Times et a remporté deux fois la Médaille Caldecott , le New York Times Best Illustrated Book Award, le Boston Globe-Horn Prix du livre pour le meilleur livre d'images, l'Empire State Award pour "Corps d'ouvrage et contribution à la littérature pour enfants", le Massachusetts Reading Association Award pour "Corps d'ouvrage et contribution à la littérature pour enfants", et Theodor Seuss Geisel Honor deux fois[6].
-Vie privée
-Elle vit à Rockville Centre, Long Island, État de New York, avec son mari, Chris Arley Seeger et leurs deux fils 
-Liste des distinctions
-Massachusetts Reading Association Award for Body of Work and Contribution to Children'Literature - 2014
+          <t>Scolarité et carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seeger a obtenu son diplôme BFA à la School of Fine Art and Design de la université d'État de New York à Purchase, Westchester, New York. Elle a commencé une carrière d'animatrice, d'artiste, de designer et de monteuse dans le secteur de la télévision en réseau. Elle a créé des ouvertures de spectacles et des segments spéciaux pour NBC et ABC pendant de nombreuses années et a remporté un Emmy Award pour une animation d'ouverture spéciale NBC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Laura_Vaccaro_Seeger</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laura_Vaccaro_Seeger</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Reconnaissance</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est souvent apparue sur la liste des meilleures ventes du New York Times et a remporté deux fois la Médaille Caldecott , le New York Times Best Illustrated Book Award, le Boston Globe-Horn Prix du livre pour le meilleur livre d'images, l'Empire State Award pour "Corps d'ouvrage et contribution à la littérature pour enfants", le Massachusetts Reading Association Award pour "Corps d'ouvrage et contribution à la littérature pour enfants", et Theodor Seuss Geisel Honor deux fois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Laura_Vaccaro_Seeger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laura_Vaccaro_Seeger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit à Rockville Centre, Long Island, État de New York, avec son mari, Chris Arley Seeger et leurs deux fils 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Laura_Vaccaro_Seeger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Laura_Vaccaro_Seeger</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des distinctions</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Massachusetts Reading Association Award for Body of Work and Contribution to Children'Literature - 2014
 ALA Notable Book, 2004-2009 and 2014
 Caldecott Honor Book, 2013
 New York Empire State Award for Body of Work and Contribution to Children'Literature - 2011
